--- a/テーブル定義書V3.xlsx
+++ b/テーブル定義書V3.xlsx
@@ -821,7 +821,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" ht="18.0" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -933,7 +933,9 @@
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="4">
+        <v>1.0</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
@@ -1083,9 +1085,7 @@
       <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
@@ -1217,9 +1217,7 @@
       <c r="E51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
@@ -1485,9 +1483,7 @@
       <c r="E73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
